--- a/sample_files/log-file-database.xlsx
+++ b/sample_files/log-file-database.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:D4501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
